--- a/cypress/fixtures/BrandsList.xlsx
+++ b/cypress/fixtures/BrandsList.xlsx
@@ -16,18 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>BrandName</t>
   </si>
   <si>
-    <t>Website URL</t>
+    <t>WebsiteURL</t>
   </si>
   <si>
     <t>CompanyName</t>
   </si>
   <si>
-    <t>Industry/Category</t>
+    <t>Category</t>
   </si>
   <si>
     <t xml:space="preserve">Revenue </t>
@@ -39,31 +39,25 @@
     <t>BrandLocations</t>
   </si>
   <si>
-    <t>LinkedinURL</t>
-  </si>
-  <si>
-    <t>Email ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facebook URL </t>
-  </si>
-  <si>
-    <t>Twitter URL</t>
+    <t>Aresson</t>
+  </si>
+  <si>
+    <t>https://aresson.com/</t>
+  </si>
+  <si>
+    <t>Consumer Goods &amp; Services</t>
+  </si>
+  <si>
+    <t>Vignesh Lenny</t>
+  </si>
+  <si>
+    <t>‘Aiea, Hawaii, United States</t>
   </si>
   <si>
     <t>Albion</t>
   </si>
   <si>
     <t>https://albiononline.com/</t>
-  </si>
-  <si>
-    <t>Consumer Goods &amp; Services</t>
-  </si>
-  <si>
-    <t>Vignesh Lenny</t>
-  </si>
-  <si>
-    <t>‘Aiea, Hawaii, United States</t>
   </si>
   <si>
     <t>Altryn</t>
@@ -88,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -118,6 +112,10 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF0563C1"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
@@ -141,12 +139,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,6 +169,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -404,13 +408,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -422,147 +426,139 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6">
+        <v>11000.0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5">
-        <v>11000.0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6">
+        <v>11000.0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5">
-        <v>11000.0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="E4" s="9">
+        <v>5000.0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8">
-        <v>5000.0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8">
+      <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9">
         <v>450.0</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>19</v>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/cypress/fixtures/BrandsList.xlsx
+++ b/cypress/fixtures/BrandsList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>BrandName</t>
   </si>
@@ -39,10 +39,10 @@
     <t>BrandLocations</t>
   </si>
   <si>
-    <t>Aresson</t>
-  </si>
-  <si>
-    <t>https://aresson.com/</t>
+    <t>Blink</t>
+  </si>
+  <si>
+    <t>https://www.blink.com/</t>
   </si>
   <si>
     <t>Consumer Goods &amp; Services</t>
@@ -51,38 +51,62 @@
     <t>Vignesh Lenny</t>
   </si>
   <si>
-    <t>‘Aiea, Hawaii, United States</t>
-  </si>
-  <si>
-    <t>Albion</t>
-  </si>
-  <si>
-    <t>https://albiononline.com/</t>
-  </si>
-  <si>
-    <t>Altryn</t>
-  </si>
-  <si>
-    <t>https://www.altryn-sport.com/</t>
+    <t>‘Aiea</t>
+  </si>
+  <si>
+    <t>Blizzard</t>
+  </si>
+  <si>
+    <t>https://www.blizzard.com/</t>
   </si>
   <si>
     <t>Sports Industry</t>
   </si>
   <si>
-    <t>Chennai, TamilNadu, India</t>
-  </si>
-  <si>
-    <t>ATAK Sports</t>
-  </si>
-  <si>
-    <t>https://www.ataksports.co.uk/</t>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Blookees</t>
+  </si>
+  <si>
+    <t>https://www.blookees.com/</t>
+  </si>
+  <si>
+    <t>Madurai</t>
+  </si>
+  <si>
+    <t>Blowfish</t>
+  </si>
+  <si>
+    <t>https://www.blowfish.com/</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>Ajay Nair</t>
+  </si>
+  <si>
+    <t>Coimbatore</t>
+  </si>
+  <si>
+    <t>Bluey</t>
+  </si>
+  <si>
+    <t>https://www.bluey.com/</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>Thoothukudi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -114,10 +138,6 @@
       <u/>
       <color rgb="FF0563C1"/>
     </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -139,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -169,9 +189,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -465,7 +482,7 @@
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="7"/>
@@ -490,13 +507,13 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
@@ -507,7 +524,7 @@
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="8"/>
@@ -517,16 +534,16 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="9">
         <v>5000.0</v>
@@ -535,21 +552,21 @@
         <v>10</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="9">
         <v>450.0</v>
@@ -558,7 +575,53 @@
         <v>10</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3456.0</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1234.0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1547,10 +1610,12 @@
     <hyperlink r:id="rId2" ref="B3"/>
     <hyperlink r:id="rId3" ref="B4"/>
     <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>